--- a/Divisions/SP2.xlsx
+++ b/Divisions/SP2.xlsx
@@ -1362,202 +1362,202 @@
     <t>Zaragoza,W L D D D W</t>
   </si>
   <si>
-    <t>Albacete,0 1 2 0 1 1</t>
-  </si>
-  <si>
-    <t>Alcorcon,2 3 1 1 0 0</t>
-  </si>
-  <si>
-    <t>Almeria,1 1 1 2 1 1</t>
-  </si>
-  <si>
-    <t>Cartagena,1 0 1 1 1 2</t>
-  </si>
-  <si>
-    <t>Castellon,1 1 1 0 0 0</t>
-  </si>
-  <si>
-    <t>Espanol,2 1 4 3 0 0</t>
-  </si>
-  <si>
-    <t>Fuenlabrada,0 2 1 2 1 1</t>
-  </si>
-  <si>
-    <t>Girona,3 1 3 1 1 4</t>
-  </si>
-  <si>
-    <t>Las Palmas,0 1 0 2 0 0</t>
-  </si>
-  <si>
-    <t>Leganes,1 1 2 0 1 3</t>
-  </si>
-  <si>
-    <t>Logrones,1 0 0 0 1 0</t>
-  </si>
-  <si>
-    <t>Lugo,0 1 0 2 0 2</t>
-  </si>
-  <si>
-    <t>Malaga,1 2 1 0 0 1</t>
-  </si>
-  <si>
-    <t>Mallorca,2 0 0 2 1 2</t>
-  </si>
-  <si>
-    <t>Mirandes,0 0 1 1 2 1</t>
-  </si>
-  <si>
-    <t>Oviedo,0 0 1 0 2 2</t>
-  </si>
-  <si>
-    <t>Ponferradina,0 1 2 0 0 2</t>
-  </si>
-  <si>
-    <t>Sabadell,1 2 1 2 1 0</t>
-  </si>
-  <si>
-    <t>Sp Gijon,1 0 0 0 0 1</t>
-  </si>
-  <si>
-    <t>Tenerife,0 0 1 0 0 2</t>
-  </si>
-  <si>
-    <t>Vallecano,0 0 2 0 1 2</t>
-  </si>
-  <si>
-    <t>Zaragoza,2 0 0 2 0 2</t>
-  </si>
-  <si>
-    <t>Albacete,2 0 2 1 0 1</t>
-  </si>
-  <si>
-    <t>Alcorcon,1 1 2 0 0 2</t>
-  </si>
-  <si>
-    <t>Almeria,2 1 1 2 0 1</t>
-  </si>
-  <si>
-    <t>Cartagena,1 0 0 2 0 0</t>
-  </si>
-  <si>
-    <t>Castellon,2 0 1 0 1 2</t>
-  </si>
-  <si>
-    <t>Espanol,1 1 0 0 0 2</t>
-  </si>
-  <si>
-    <t>Fuenlabrada,0 2 0 1 2 2</t>
-  </si>
-  <si>
-    <t>Girona,1 2 0 0 0 1</t>
-  </si>
-  <si>
-    <t>Las Palmas,0 1 4 0 0 2</t>
-  </si>
-  <si>
-    <t>Leganes,2 1 1 0 1 0</t>
-  </si>
-  <si>
-    <t>Logrones,0 0 1 0 4 3</t>
-  </si>
-  <si>
-    <t>Lugo,2 3 2 2 1 1</t>
-  </si>
-  <si>
-    <t>Malaga,0 0 1 1 3 1</t>
-  </si>
-  <si>
-    <t>Mallorca,0 1 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Mirandes,1 0 1 2 1 2</t>
-  </si>
-  <si>
-    <t>Oviedo,1 0 0 1 2 1</t>
-  </si>
-  <si>
-    <t>Ponferradina,0 1 0 2 1 0</t>
-  </si>
-  <si>
-    <t>Sabadell,1 2 0 0 2 2</t>
-  </si>
-  <si>
-    <t>Sp Gijon,2 1 1 0 0 0</t>
-  </si>
-  <si>
-    <t>Tenerife,0 0 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Vallecano,1 0 2 2 1 1</t>
-  </si>
-  <si>
-    <t>Zaragoza,1 3 0 2 0 0</t>
-  </si>
-  <si>
-    <t>Albacete,2 1 4 1 1 2</t>
-  </si>
-  <si>
-    <t>Alcorcon,3 4 3 1 0 2</t>
-  </si>
-  <si>
-    <t>Almeria,3 2 2 4 1 2</t>
-  </si>
-  <si>
-    <t>Cartagena,2 0 1 3 1 2</t>
-  </si>
-  <si>
-    <t>Castellon,3 1 2 0 1 2</t>
-  </si>
-  <si>
-    <t>Espanol,3 2 4 3 0 2</t>
-  </si>
-  <si>
-    <t>Fuenlabrada,0 4 1 3 3 3</t>
-  </si>
-  <si>
-    <t>Girona,4 3 3 1 1 5</t>
-  </si>
-  <si>
-    <t>Las Palmas,0 2 4 2 0 2</t>
-  </si>
-  <si>
-    <t>Leganes,3 2 3 0 2 3</t>
-  </si>
-  <si>
-    <t>Logrones,1 0 1 0 5 3</t>
-  </si>
-  <si>
-    <t>Lugo,2 4 2 4 1 3</t>
-  </si>
-  <si>
-    <t>Malaga,1 2 2 1 3 2</t>
-  </si>
-  <si>
-    <t>Mallorca,2 1 1 3 2 2</t>
-  </si>
-  <si>
-    <t>Mirandes,1 0 2 3 3 3</t>
-  </si>
-  <si>
-    <t>Oviedo,1 0 1 1 4 3</t>
-  </si>
-  <si>
-    <t>Ponferradina,0 2 2 2 1 2</t>
-  </si>
-  <si>
-    <t>Sabadell,2 4 1 2 3 2</t>
-  </si>
-  <si>
-    <t>Sp Gijon,3 1 1 0 0 1</t>
-  </si>
-  <si>
-    <t>Tenerife,0 0 2 1 1 2</t>
-  </si>
-  <si>
-    <t>Vallecano,1 0 4 2 2 3</t>
-  </si>
-  <si>
-    <t>Zaragoza,3 3 0 4 0 2</t>
+    <t>Albacete,0 1 2 0 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Alcorcon,2 3 1 1 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Almeria,1 1 1 2 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Cartagena,1 0 1 1 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Castellon,1 1 1 0 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Espanol,2 1 4 3 0 0,(10)</t>
+  </si>
+  <si>
+    <t>Fuenlabrada,0 2 1 2 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Girona,3 1 3 1 1 4,(13)</t>
+  </si>
+  <si>
+    <t>Las Palmas,0 1 0 2 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Leganes,1 1 2 0 1 3,(8)</t>
+  </si>
+  <si>
+    <t>Logrones,1 0 0 0 1 0,(2)</t>
+  </si>
+  <si>
+    <t>Lugo,0 1 0 2 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Malaga,1 2 1 0 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Mallorca,2 0 0 2 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Mirandes,0 0 1 1 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Oviedo,0 0 1 0 2 2,(5)</t>
+  </si>
+  <si>
+    <t>Ponferradina,0 1 2 0 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Sabadell,1 2 1 2 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Sp Gijon,1 0 0 0 0 1,(2)</t>
+  </si>
+  <si>
+    <t>Tenerife,0 0 1 0 0 2,(3)</t>
+  </si>
+  <si>
+    <t>Vallecano,0 0 2 0 1 2,(5)</t>
+  </si>
+  <si>
+    <t>Zaragoza,2 0 0 2 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Albacete,2 0 2 1 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Alcorcon,1 1 2 0 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Almeria,2 1 1 2 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Cartagena,1 0 0 2 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Castellon,2 0 1 0 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Espanol,1 1 0 0 0 2,(4)</t>
+  </si>
+  <si>
+    <t>Fuenlabrada,0 2 0 1 2 2,(7)</t>
+  </si>
+  <si>
+    <t>Girona,1 2 0 0 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Las Palmas,0 1 4 0 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Leganes,2 1 1 0 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Logrones,0 0 1 0 4 3,(8)</t>
+  </si>
+  <si>
+    <t>Lugo,2 3 2 2 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Malaga,0 0 1 1 3 1,(6)</t>
+  </si>
+  <si>
+    <t>Mallorca,0 1 1 1 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Mirandes,1 0 1 2 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Oviedo,1 0 0 1 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Ponferradina,0 1 0 2 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Sabadell,1 2 0 0 2 2,(7)</t>
+  </si>
+  <si>
+    <t>Sp Gijon,2 1 1 0 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Tenerife,0 0 1 1 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Vallecano,1 0 2 2 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Zaragoza,1 3 0 2 0 0,(6)</t>
+  </si>
+  <si>
+    <t>Albacete,2 1 4 1 1 2,(11)</t>
+  </si>
+  <si>
+    <t>Alcorcon,3 4 3 1 0 2,(13)</t>
+  </si>
+  <si>
+    <t>Almeria,3 2 2 4 1 2,(14)</t>
+  </si>
+  <si>
+    <t>Cartagena,2 0 1 3 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Castellon,3 1 2 0 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Espanol,3 2 4 3 0 2,(14)</t>
+  </si>
+  <si>
+    <t>Fuenlabrada,0 4 1 3 3 3,(14)</t>
+  </si>
+  <si>
+    <t>Girona,4 3 3 1 1 5,(17)</t>
+  </si>
+  <si>
+    <t>Las Palmas,0 2 4 2 0 2,(10)</t>
+  </si>
+  <si>
+    <t>Leganes,3 2 3 0 2 3,(13)</t>
+  </si>
+  <si>
+    <t>Logrones,1 0 1 0 5 3,(10)</t>
+  </si>
+  <si>
+    <t>Lugo,2 4 2 4 1 3,(16)</t>
+  </si>
+  <si>
+    <t>Malaga,1 2 2 1 3 2,(11)</t>
+  </si>
+  <si>
+    <t>Mallorca,2 1 1 3 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Mirandes,1 0 2 3 3 3,(12)</t>
+  </si>
+  <si>
+    <t>Oviedo,1 0 1 1 4 3,(10)</t>
+  </si>
+  <si>
+    <t>Ponferradina,0 2 2 2 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Sabadell,2 4 1 2 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Sp Gijon,3 1 1 0 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Tenerife,0 0 2 1 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Vallecano,1 0 4 2 2 3,(12)</t>
+  </si>
+  <si>
+    <t>Zaragoza,3 3 0 4 0 2,(12)</t>
   </si>
   <si>
     <t>Albacete,Malaga Mirandes Vallecano Alcorcon Ponferradina Almeria</t>

--- a/Divisions/SP2.xlsx
+++ b/Divisions/SP2.xlsx
@@ -17,13 +17,12 @@
     <sheet name="Red Totals" r:id="rId11" sheetId="9"/>
     <sheet name="OVUN" r:id="rId12" sheetId="10"/>
     <sheet name="Shots Analysis" r:id="rId13" sheetId="11"/>
-    <sheet name="L6" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8309" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8126" uniqueCount="449">
   <si>
     <t>Team</t>
   </si>
@@ -1370,489 +1369,6 @@
   </si>
   <si>
     <t>30.22%</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Goals scored</t>
-  </si>
-  <si>
-    <t>Goals conceded</t>
-  </si>
-  <si>
-    <t>Total Goals</t>
-  </si>
-  <si>
-    <t>CSForm</t>
-  </si>
-  <si>
-    <t>Win Margin</t>
-  </si>
-  <si>
-    <t>Team against</t>
-  </si>
-  <si>
-    <t>Alcorcon,W L D L L L</t>
-  </si>
-  <si>
-    <t>Almeria,D L W W W D</t>
-  </si>
-  <si>
-    <t>Amorebieta,L D W W W W</t>
-  </si>
-  <si>
-    <t>Burgos,D W D W L D</t>
-  </si>
-  <si>
-    <t>Cartagena,W L W W D W</t>
-  </si>
-  <si>
-    <t>Eibar,W D D W L W</t>
-  </si>
-  <si>
-    <t>Fuenlabrada,L W L L L D</t>
-  </si>
-  <si>
-    <t>Girona,W W W W L W</t>
-  </si>
-  <si>
-    <t>Huesca,D W D D D W</t>
-  </si>
-  <si>
-    <t>Ibiza,D D W D D L</t>
-  </si>
-  <si>
-    <t>Las Palmas,L W W W W W</t>
-  </si>
-  <si>
-    <t>Leganes,W D W L W L</t>
-  </si>
-  <si>
-    <t>Lugo,W D W D L L</t>
-  </si>
-  <si>
-    <t>Malaga,D L D L D L</t>
-  </si>
-  <si>
-    <t>Mirandes,W W W W L W</t>
-  </si>
-  <si>
-    <t>Oviedo,L W W W W D</t>
-  </si>
-  <si>
-    <t>Ponferradina,D L W W W L</t>
-  </si>
-  <si>
-    <t>Sociedad B,W L L L W L</t>
-  </si>
-  <si>
-    <t>Sp Gijon,L L W L L W</t>
-  </si>
-  <si>
-    <t>Tenerife,L L D W D L</t>
-  </si>
-  <si>
-    <t>Valladolid,W L W D L W</t>
-  </si>
-  <si>
-    <t>Zaragoza,W D W D L W</t>
-  </si>
-  <si>
-    <t>Alcorcon,1 1 1 1 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Almeria,3 0 3 1 3 1,(11)</t>
-  </si>
-  <si>
-    <t>Amorebieta,1 0 3 1 2 1,(8)</t>
-  </si>
-  <si>
-    <t>Burgos,0 1 0 2 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Cartagena,3 1 3 3 0 5,(15)</t>
-  </si>
-  <si>
-    <t>Eibar,1 1 2 2 0 2,(8)</t>
-  </si>
-  <si>
-    <t>Fuenlabrada,1 1 2 2 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Girona,2 5 1 2 0 2,(12)</t>
-  </si>
-  <si>
-    <t>Huesca,0 1 1 1 1 3,(7)</t>
-  </si>
-  <si>
-    <t>Ibiza,1 2 2 1 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Las Palmas,1 4 1 2 1 2,(11)</t>
-  </si>
-  <si>
-    <t>Leganes,2 1 3 0 2 2,(10)</t>
-  </si>
-  <si>
-    <t>Lugo,1 1 1 0 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Malaga,0 0 2 1 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Mirandes,2 2 3 3 0 4,(14)</t>
-  </si>
-  <si>
-    <t>Oviedo,0 3 3 1 3 3,(13)</t>
-  </si>
-  <si>
-    <t>Ponferradina,2 1 3 4 3 0,(13)</t>
-  </si>
-  <si>
-    <t>Sociedad B,2 1 2 1 2 0,(8)</t>
-  </si>
-  <si>
-    <t>Sp Gijon,1 1 4 0 0 2,(8)</t>
-  </si>
-  <si>
-    <t>Tenerife,1 0 1 3 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Valladolid,5 0 4 2 1 2,(14)</t>
-  </si>
-  <si>
-    <t>Zaragoza,2 1 1 0 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Alcorcon,0 2 1 2 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Almeria,3 1 0 0 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Amorebieta,2 0 1 0 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Burgos,0 0 0 1 2 1,(4)</t>
-  </si>
-  <si>
-    <t>Cartagena,0 2 1 0 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Eibar,0 1 2 0 2 0,(5)</t>
-  </si>
-  <si>
-    <t>Fuenlabrada,2 0 3 3 2 0,(10)</t>
-  </si>
-  <si>
-    <t>Girona,1 1 0 0 1 0,(3)</t>
-  </si>
-  <si>
-    <t>Huesca,0 0 1 1 1 2,(5)</t>
-  </si>
-  <si>
-    <t>Ibiza,1 2 0 1 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Las Palmas,3 2 0 1 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Leganes,0 1 2 3 1 3,(10)</t>
-  </si>
-  <si>
-    <t>Lugo,0 1 0 0 2 3,(6)</t>
-  </si>
-  <si>
-    <t>Malaga,0 2 2 3 0 1,(8)</t>
-  </si>
-  <si>
-    <t>Mirandes,1 1 1 1 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Oviedo,1 0 0 0 0 3,(4)</t>
-  </si>
-  <si>
-    <t>Ponferradina,2 2 1 2 1 3,(11)</t>
-  </si>
-  <si>
-    <t>Sociedad B,1 3 4 2 1 2,(13)</t>
-  </si>
-  <si>
-    <t>Sp Gijon,2 2 1 1 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Tenerife,4 1 1 1 0 2,(9)</t>
-  </si>
-  <si>
-    <t>Valladolid,1 1 1 2 2 0,(7)</t>
-  </si>
-  <si>
-    <t>Zaragoza,1 1 0 0 3 0,(5)</t>
-  </si>
-  <si>
-    <t>Alcorcon,1 3 2 3 1 2,(12)</t>
-  </si>
-  <si>
-    <t>Almeria,6 1 3 1 3 2,(16)</t>
-  </si>
-  <si>
-    <t>Amorebieta,3 0 4 1 3 1,(12)</t>
-  </si>
-  <si>
-    <t>Burgos,0 1 0 3 2 2,(8)</t>
-  </si>
-  <si>
-    <t>Cartagena,3 3 4 3 0 5,(18)</t>
-  </si>
-  <si>
-    <t>Eibar,1 2 4 2 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Fuenlabrada,3 1 5 5 3 0,(17)</t>
-  </si>
-  <si>
-    <t>Girona,3 6 1 2 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Huesca,0 1 2 2 2 5,(12)</t>
-  </si>
-  <si>
-    <t>Ibiza,2 4 2 2 2 3,(15)</t>
-  </si>
-  <si>
-    <t>Las Palmas,4 6 1 3 1 3,(18)</t>
-  </si>
-  <si>
-    <t>Leganes,2 2 5 3 3 5,(20)</t>
-  </si>
-  <si>
-    <t>Lugo,1 2 1 0 2 4,(10)</t>
-  </si>
-  <si>
-    <t>Malaga,0 2 4 4 0 1,(11)</t>
-  </si>
-  <si>
-    <t>Mirandes,3 3 4 4 1 4,(19)</t>
-  </si>
-  <si>
-    <t>Oviedo,1 3 3 1 3 6,(17)</t>
-  </si>
-  <si>
-    <t>Ponferradina,4 3 4 6 4 3,(24)</t>
-  </si>
-  <si>
-    <t>Sociedad B,3 4 6 3 3 2,(21)</t>
-  </si>
-  <si>
-    <t>Sp Gijon,3 3 5 1 1 3,(16)</t>
-  </si>
-  <si>
-    <t>Tenerife,5 1 2 4 0 2,(14)</t>
-  </si>
-  <si>
-    <t>Valladolid,6 1 5 4 3 2,(21)</t>
-  </si>
-  <si>
-    <t>Zaragoza,3 2 1 0 3 1,(10)</t>
-  </si>
-  <si>
-    <t>Alcorcon,1-0 1-2 1-1 1-2 0-1 0-2</t>
-  </si>
-  <si>
-    <t>Almeria,3-3 0-1 3-0 1-0 3-0 1-1</t>
-  </si>
-  <si>
-    <t>Amorebieta,1-2 0-0 3-1 1-0 2-1 1-0</t>
-  </si>
-  <si>
-    <t>Burgos,0-0 1-0 0-0 2-1 0-2 1-1</t>
-  </si>
-  <si>
-    <t>Cartagena,3-0 1-2 3-1 3-0 0-0 5-0</t>
-  </si>
-  <si>
-    <t>Eibar,1-0 1-1 2-2 2-0 0-2 2-0</t>
-  </si>
-  <si>
-    <t>Fuenlabrada,1-2 1-0 2-3 2-3 1-2 0-0</t>
-  </si>
-  <si>
-    <t>Girona,2-1 5-1 1-0 2-0 0-1 2-0</t>
-  </si>
-  <si>
-    <t>Huesca,0-0 1-0 1-1 1-1 1-1 3-2</t>
-  </si>
-  <si>
-    <t>Ibiza,1-1 2-2 2-0 1-1 1-1 1-2</t>
-  </si>
-  <si>
-    <t>Las Palmas,1-3 4-2 1-0 2-1 1-0 2-1</t>
-  </si>
-  <si>
-    <t>Leganes,2-0 1-1 3-2 0-3 2-1 2-3</t>
-  </si>
-  <si>
-    <t>Lugo,1-0 1-1 1-0 0-0 0-2 1-3</t>
-  </si>
-  <si>
-    <t>Malaga,0-0 0-2 2-2 1-3 0-0 0-1</t>
-  </si>
-  <si>
-    <t>Mirandes,2-1 2-1 3-1 3-1 0-1 4-0</t>
-  </si>
-  <si>
-    <t>Oviedo,0-1 3-0 3-0 1-0 3-0 3-3</t>
-  </si>
-  <si>
-    <t>Ponferradina,2-2 1-2 3-1 4-2 3-1 0-3</t>
-  </si>
-  <si>
-    <t>Sociedad B,2-1 1-3 2-4 1-2 2-1 0-2</t>
-  </si>
-  <si>
-    <t>Sp Gijon,1-2 1-2 4-1 0-1 0-1 2-1</t>
-  </si>
-  <si>
-    <t>Tenerife,1-4 0-1 1-1 3-1 0-0 0-2</t>
-  </si>
-  <si>
-    <t>Valladolid,5-1 0-1 4-1 2-2 1-2 2-0</t>
-  </si>
-  <si>
-    <t>Zaragoza,2-1 1-1 1-0 0-0 0-3 1-0</t>
-  </si>
-  <si>
-    <t>Alcorcon,1 -1 0 -1 -1 -2,(-4)</t>
-  </si>
-  <si>
-    <t>Almeria,0 -1 3 1 3 0,(6)</t>
-  </si>
-  <si>
-    <t>Amorebieta,-1 0 2 1 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Burgos,0 1 0 1 -2 0,(0)</t>
-  </si>
-  <si>
-    <t>Cartagena,3 -1 2 3 0 5,(12)</t>
-  </si>
-  <si>
-    <t>Eibar,1 0 0 2 -2 2,(3)</t>
-  </si>
-  <si>
-    <t>Fuenlabrada,-1 1 -1 -1 -1 0,(-3)</t>
-  </si>
-  <si>
-    <t>Girona,1 4 1 2 -1 2,(9)</t>
-  </si>
-  <si>
-    <t>Huesca,0 1 0 0 0 1,(2)</t>
-  </si>
-  <si>
-    <t>Ibiza,0 0 2 0 0 -1,(1)</t>
-  </si>
-  <si>
-    <t>Las Palmas,-2 2 1 1 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Leganes,2 0 1 -3 1 -1,(0)</t>
-  </si>
-  <si>
-    <t>Lugo,1 0 1 0 -2 -2,(-2)</t>
-  </si>
-  <si>
-    <t>Malaga,0 -2 0 -2 0 -1,(-5)</t>
-  </si>
-  <si>
-    <t>Mirandes,1 1 2 2 -1 4,(9)</t>
-  </si>
-  <si>
-    <t>Oviedo,-1 3 3 1 3 0,(9)</t>
-  </si>
-  <si>
-    <t>Ponferradina,0 -1 2 2 2 -3,(2)</t>
-  </si>
-  <si>
-    <t>Sociedad B,1 -2 -2 -1 1 -2,(-5)</t>
-  </si>
-  <si>
-    <t>Sp Gijon,-1 -1 3 -1 -1 1,(0)</t>
-  </si>
-  <si>
-    <t>Tenerife,-3 -1 0 2 0 -2,(-4)</t>
-  </si>
-  <si>
-    <t>Valladolid,4 -1 3 0 -1 2,(7)</t>
-  </si>
-  <si>
-    <t>Zaragoza,1 0 1 0 -3 1,(0)</t>
-  </si>
-  <si>
-    <t>Alcorcon,Huesca(11) Valladolid(3) Sp Gijon(17) Oviedo(7) Girona(5) Las Palmas(6)</t>
-  </si>
-  <si>
-    <t>Almeria,Lugo(16) Girona(5) Ponferradina(8) Sp Gijon(17) Amorebieta(19) Alcorcon(22)</t>
-  </si>
-  <si>
-    <t>Amorebieta,Malaga(18) Alcorcon(22) Ibiza(14) Mirandes(15) Fuenlabrada(21) Huesca(11)</t>
-  </si>
-  <si>
-    <t>Burgos,Sociedad B(20) Tenerife(4) Sp Gijon(17) Ibiza(14) Almeria(1) Cartagena(9)</t>
-  </si>
-  <si>
-    <t>Cartagena,Zaragoza(13) Oviedo(7) Alcorcon(22) Girona(5) Leganes(12) Amorebieta(19)</t>
-  </si>
-  <si>
-    <t>Eibar,Lugo(16) Mirandes(15) Las Palmas(6) Zaragoza(13) Valladolid(3) Tenerife(4)</t>
-  </si>
-  <si>
-    <t>Fuenlabrada,Burgos(10) Malaga(18) Huesca(11) Ponferradina(8) Sociedad B(20) Sp Gijon(17)</t>
-  </si>
-  <si>
-    <t>Girona,Oviedo(7) Ibiza(14) Malaga(18) Sociedad B(20) Tenerife(4) Mirandes(15)</t>
-  </si>
-  <si>
-    <t>Huesca,Las Palmas(6) Burgos(10) Almeria(1) Zaragoza(13) Sp Gijon(17) Sociedad B(20)</t>
-  </si>
-  <si>
-    <t>Ibiza,Leganes(12) Sociedad B(20) Eibar(2) Las Palmas(6) Lugo(16) Valladolid(3)</t>
-  </si>
-  <si>
-    <t>Las Palmas,Girona(5) Leganes(12) Amorebieta(19) Malaga(18) Mirandes(15) Oviedo(7)</t>
-  </si>
-  <si>
-    <t>Leganes,Mirandes(15) Sp Gijon(17) Fuenlabrada(21) Malaga(18) Huesca(11) Eibar(2)</t>
-  </si>
-  <si>
-    <t>Lugo,Alcorcon(22) Oviedo(7) Cartagena(9) Leganes(12) Tenerife(4) Fuenlabrada(21)</t>
-  </si>
-  <si>
-    <t>Malaga,Ponferradina(8) Huesca(11) Valladolid(3) Eibar(2) Oviedo(7) Burgos(10)</t>
-  </si>
-  <si>
-    <t>Mirandes,Tenerife(4) Cartagena(9) Ponferradina(8) Burgos(10) Valladolid(3) Ibiza(14)</t>
-  </si>
-  <si>
-    <t>Oviedo,Sociedad B(20) Valladolid(3) Fuenlabrada(21) Leganes(12) Mirandes(15) Zaragoza(13)</t>
-  </si>
-  <si>
-    <t>Ponferradina,Eibar(2) Las Palmas(6) Lugo(16) Cartagena(9) Burgos(10) Leganes(12)</t>
-  </si>
-  <si>
-    <t>Sociedad B,Sp Gijon(17) Mirandes(15) Alcorcon(22) Tenerife(4) Amorebieta(19) Almeria(1)</t>
-  </si>
-  <si>
-    <t>Sp Gijon,Zaragoza(13) Tenerife(4) Cartagena(9) Oviedo(7) Ibiza(14) Girona(5)</t>
-  </si>
-  <si>
-    <t>Tenerife,Valladolid(3) Almeria(1) Zaragoza(13) Fuenlabrada(21) Huesca(11) Malaga(18)</t>
-  </si>
-  <si>
-    <t>Valladolid,Amorebieta(19) Las Palmas(6) Lugo(16) Almeria(1) Sociedad B(20) Ponferradina(8)</t>
-  </si>
-  <si>
-    <t>Zaragoza,Fuenlabrada(21) Amorebieta(19) Girona(5) Burgos(10) Alcorcon(22) Lugo(16)</t>
   </si>
 </sst>
 </file>
@@ -5516,615 +5032,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F2" t="s">
-        <v>544</v>
-      </c>
-      <c r="G2" t="s">
-        <v>566</v>
-      </c>
-      <c r="H2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D3" t="s">
-        <v>501</v>
-      </c>
-      <c r="E3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F3" t="s">
-        <v>545</v>
-      </c>
-      <c r="G3" t="s">
-        <v>567</v>
-      </c>
-      <c r="H3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D4" t="s">
-        <v>502</v>
-      </c>
-      <c r="E4" t="s">
-        <v>524</v>
-      </c>
-      <c r="F4" t="s">
-        <v>546</v>
-      </c>
-      <c r="G4" t="s">
-        <v>568</v>
-      </c>
-      <c r="H4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D5" t="s">
-        <v>503</v>
-      </c>
-      <c r="E5" t="s">
-        <v>525</v>
-      </c>
-      <c r="F5" t="s">
-        <v>547</v>
-      </c>
-      <c r="G5" t="s">
-        <v>569</v>
-      </c>
-      <c r="H5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C6" t="s">
-        <v>482</v>
-      </c>
-      <c r="D6" t="s">
-        <v>504</v>
-      </c>
-      <c r="E6" t="s">
-        <v>526</v>
-      </c>
-      <c r="F6" t="s">
-        <v>548</v>
-      </c>
-      <c r="G6" t="s">
-        <v>570</v>
-      </c>
-      <c r="H6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C7" t="s">
-        <v>483</v>
-      </c>
-      <c r="D7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E7" t="s">
-        <v>527</v>
-      </c>
-      <c r="F7" t="s">
-        <v>549</v>
-      </c>
-      <c r="G7" t="s">
-        <v>571</v>
-      </c>
-      <c r="H7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>462</v>
-      </c>
-      <c r="C8" t="s">
-        <v>484</v>
-      </c>
-      <c r="D8" t="s">
-        <v>506</v>
-      </c>
-      <c r="E8" t="s">
-        <v>528</v>
-      </c>
-      <c r="F8" t="s">
-        <v>550</v>
-      </c>
-      <c r="G8" t="s">
-        <v>572</v>
-      </c>
-      <c r="H8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>463</v>
-      </c>
-      <c r="C9" t="s">
-        <v>485</v>
-      </c>
-      <c r="D9" t="s">
-        <v>507</v>
-      </c>
-      <c r="E9" t="s">
-        <v>529</v>
-      </c>
-      <c r="F9" t="s">
-        <v>551</v>
-      </c>
-      <c r="G9" t="s">
-        <v>573</v>
-      </c>
-      <c r="H9" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>464</v>
-      </c>
-      <c r="C10" t="s">
-        <v>486</v>
-      </c>
-      <c r="D10" t="s">
-        <v>508</v>
-      </c>
-      <c r="E10" t="s">
-        <v>530</v>
-      </c>
-      <c r="F10" t="s">
-        <v>552</v>
-      </c>
-      <c r="G10" t="s">
-        <v>574</v>
-      </c>
-      <c r="H10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>465</v>
-      </c>
-      <c r="C11" t="s">
-        <v>487</v>
-      </c>
-      <c r="D11" t="s">
-        <v>509</v>
-      </c>
-      <c r="E11" t="s">
-        <v>531</v>
-      </c>
-      <c r="F11" t="s">
-        <v>553</v>
-      </c>
-      <c r="G11" t="s">
-        <v>575</v>
-      </c>
-      <c r="H11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>466</v>
-      </c>
-      <c r="C12" t="s">
-        <v>488</v>
-      </c>
-      <c r="D12" t="s">
-        <v>510</v>
-      </c>
-      <c r="E12" t="s">
-        <v>532</v>
-      </c>
-      <c r="F12" t="s">
-        <v>554</v>
-      </c>
-      <c r="G12" t="s">
-        <v>576</v>
-      </c>
-      <c r="H12" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>467</v>
-      </c>
-      <c r="C13" t="s">
-        <v>489</v>
-      </c>
-      <c r="D13" t="s">
-        <v>511</v>
-      </c>
-      <c r="E13" t="s">
-        <v>533</v>
-      </c>
-      <c r="F13" t="s">
-        <v>555</v>
-      </c>
-      <c r="G13" t="s">
-        <v>577</v>
-      </c>
-      <c r="H13" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>468</v>
-      </c>
-      <c r="C14" t="s">
-        <v>490</v>
-      </c>
-      <c r="D14" t="s">
-        <v>512</v>
-      </c>
-      <c r="E14" t="s">
-        <v>534</v>
-      </c>
-      <c r="F14" t="s">
-        <v>556</v>
-      </c>
-      <c r="G14" t="s">
-        <v>578</v>
-      </c>
-      <c r="H14" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>469</v>
-      </c>
-      <c r="C15" t="s">
-        <v>491</v>
-      </c>
-      <c r="D15" t="s">
-        <v>513</v>
-      </c>
-      <c r="E15" t="s">
-        <v>535</v>
-      </c>
-      <c r="F15" t="s">
-        <v>557</v>
-      </c>
-      <c r="G15" t="s">
-        <v>579</v>
-      </c>
-      <c r="H15" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C16" t="s">
-        <v>492</v>
-      </c>
-      <c r="D16" t="s">
-        <v>514</v>
-      </c>
-      <c r="E16" t="s">
-        <v>536</v>
-      </c>
-      <c r="F16" t="s">
-        <v>558</v>
-      </c>
-      <c r="G16" t="s">
-        <v>580</v>
-      </c>
-      <c r="H16" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>471</v>
-      </c>
-      <c r="C17" t="s">
-        <v>493</v>
-      </c>
-      <c r="D17" t="s">
-        <v>515</v>
-      </c>
-      <c r="E17" t="s">
-        <v>537</v>
-      </c>
-      <c r="F17" t="s">
-        <v>559</v>
-      </c>
-      <c r="G17" t="s">
-        <v>581</v>
-      </c>
-      <c r="H17" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>472</v>
-      </c>
-      <c r="C18" t="s">
-        <v>494</v>
-      </c>
-      <c r="D18" t="s">
-        <v>516</v>
-      </c>
-      <c r="E18" t="s">
-        <v>538</v>
-      </c>
-      <c r="F18" t="s">
-        <v>560</v>
-      </c>
-      <c r="G18" t="s">
-        <v>582</v>
-      </c>
-      <c r="H18" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>473</v>
-      </c>
-      <c r="C19" t="s">
-        <v>495</v>
-      </c>
-      <c r="D19" t="s">
-        <v>517</v>
-      </c>
-      <c r="E19" t="s">
-        <v>539</v>
-      </c>
-      <c r="F19" t="s">
-        <v>561</v>
-      </c>
-      <c r="G19" t="s">
-        <v>583</v>
-      </c>
-      <c r="H19" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>474</v>
-      </c>
-      <c r="C20" t="s">
-        <v>496</v>
-      </c>
-      <c r="D20" t="s">
-        <v>518</v>
-      </c>
-      <c r="E20" t="s">
-        <v>540</v>
-      </c>
-      <c r="F20" t="s">
-        <v>562</v>
-      </c>
-      <c r="G20" t="s">
-        <v>584</v>
-      </c>
-      <c r="H20" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>475</v>
-      </c>
-      <c r="C21" t="s">
-        <v>497</v>
-      </c>
-      <c r="D21" t="s">
-        <v>519</v>
-      </c>
-      <c r="E21" t="s">
-        <v>541</v>
-      </c>
-      <c r="F21" t="s">
-        <v>563</v>
-      </c>
-      <c r="G21" t="s">
-        <v>585</v>
-      </c>
-      <c r="H21" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>476</v>
-      </c>
-      <c r="C22" t="s">
-        <v>498</v>
-      </c>
-      <c r="D22" t="s">
-        <v>520</v>
-      </c>
-      <c r="E22" t="s">
-        <v>542</v>
-      </c>
-      <c r="F22" t="s">
-        <v>564</v>
-      </c>
-      <c r="G22" t="s">
-        <v>586</v>
-      </c>
-      <c r="H22" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>477</v>
-      </c>
-      <c r="C23" t="s">
-        <v>499</v>
-      </c>
-      <c r="D23" t="s">
-        <v>521</v>
-      </c>
-      <c r="E23" t="s">
-        <v>543</v>
-      </c>
-      <c r="F23" t="s">
-        <v>565</v>
-      </c>
-      <c r="G23" t="s">
-        <v>587</v>
-      </c>
-      <c r="H23" t="s">
-        <v>609</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
